--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429070.1931169337</v>
+        <v>424930.4867029759</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10962524.15980696</v>
+        <v>10959574.26285487</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>276.7261133975161</v>
+        <v>395.6563940003448</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>43.18216472120577</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>179.7573392424196</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914574</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>256.3237585504349</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.5741591514702</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,10 +908,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>386.3498161029194</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>47.6314705640569</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>170.2188852065482</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.80678208265799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>229.8660471796657</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.5210671372753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>57.87860001854907</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.2928517456511</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>14.29071721198937</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>82.824067018408</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8983453692182</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>71.52637950011774</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.86047123489863</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>124.7431390269967</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>38.72088706084446</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>70.03904814941367</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697363</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875578</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380527</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357254</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596467</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135919</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875578</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879316</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380527</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357254</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596467</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875511</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277566</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059324</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380527</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357254</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596467</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838887</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828899</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431732</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459972</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643945</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931856</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908583</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147796</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805001</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922194</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367785</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920517</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879343</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.086926026004</v>
+        <v>1251.226109956102</v>
       </c>
       <c r="C2" t="n">
-        <v>739.911424528935</v>
+        <v>858.0506084590322</v>
       </c>
       <c r="D2" t="n">
-        <v>739.911424528935</v>
+        <v>858.0506084590322</v>
       </c>
       <c r="E2" t="n">
-        <v>739.911424528935</v>
+        <v>858.0506084590322</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0169860589127</v>
+        <v>441.15616998901</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697128</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O2" t="n">
-        <v>2106.518148697128</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P2" t="n">
-        <v>2106.518148697128</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172347</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172347</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1919.030240172347</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X2" t="n">
-        <v>1529.577635105403</v>
+        <v>1647.716819035501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1133.086926026004</v>
+        <v>1251.226109956102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>671.4221579801455</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>520.7679275402377</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>390.678960161718</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>254.2324692726057</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245749</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634667</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.648494225648</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>2155.269862942046</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2031.543989613684</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1854.560177812592</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1644.497034491234</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1421.957032862301</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1191.839786995588</v>
       </c>
       <c r="X3" t="n">
-        <v>994.6579769757473</v>
+        <v>1002.5327093456</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>823.2184924211068</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>97.06776516156884</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475496</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.394930190808</v>
+        <v>1636.674678391047</v>
       </c>
       <c r="C5" t="n">
-        <v>1600.219428693739</v>
+        <v>1636.674678391047</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.219428693739</v>
+        <v>1251.233549607715</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>848.6500247242591</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>431.7555862542368</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>773.3325661833835</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827815</v>
+        <v>773.3325661833835</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465278</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="Y5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.4151516456736</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>555.7609212057658</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272462</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817838</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>1561.559659207234</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1456.950026527829</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1226.832780661116</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.525703011128</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>858.211486086635</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.426234702651</v>
+        <v>367.3414777878345</v>
       </c>
       <c r="C7" t="n">
-        <v>148.426234702651</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D7" t="n">
-        <v>148.426234702651</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>148.426234702651</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>148.426234702651</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>148.426234702651</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>148.426234702651</v>
+        <v>775.6615576624924</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.426234702651</v>
+        <v>552.5494964791358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.588311973738</v>
+        <v>1732.965832921677</v>
       </c>
       <c r="C8" t="n">
-        <v>797.412810476668</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D8" t="n">
-        <v>797.412810476668</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.548782066221</v>
+        <v>2133.460578633074</v>
       </c>
       <c r="W8" t="n">
-        <v>1985.548782066221</v>
+        <v>2133.460578633074</v>
       </c>
       <c r="X8" t="n">
-        <v>1985.548782066221</v>
+        <v>2133.460578633074</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.083057685134</v>
+        <v>2133.460578633074</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.3595905514212</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="C10" t="n">
-        <v>136.1544726174104</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1544726174104</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1544726174104</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>727.2520615868829</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>727.2520615868829</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>727.2520615868829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>727.2520615868829</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>727.2520615868829</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.5676092427225</v>
+        <v>504.1400004035262</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1795.371010771262</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1473.991784420386</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1160.346930783248</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>829.5596810459863</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>484.4615177221579</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>143.0950373563548</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>3022.295711449809</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2124.069481336465</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>2124.069481336465</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.8620908077595</v>
+        <v>313.4007785423228</v>
       </c>
       <c r="C13" t="n">
-        <v>290.8620908077595</v>
+        <v>313.4007785423228</v>
       </c>
       <c r="D13" t="n">
-        <v>290.8620908077595</v>
+        <v>229.5639405910314</v>
       </c>
       <c r="E13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.744414168833</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1223.821637483261</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1010.179120871356</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>815.9960508383738</v>
+        <v>872.8795642628188</v>
       </c>
       <c r="W13" t="n">
-        <v>604.4619239157453</v>
+        <v>661.3454373401903</v>
       </c>
       <c r="X13" t="n">
-        <v>442.1778768449223</v>
+        <v>499.0613902693672</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.8620908077595</v>
+        <v>426.8125220874303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1398.198638179665</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5294,34 +5294,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293022</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998633</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579425</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429137</v>
+        <v>2733.531607264291</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622869</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689664</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497492</v>
+        <v>268.8305097821767</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619324</v>
+        <v>229.7185026500106</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106411</v>
+        <v>145.8816646987192</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.705150907707</v>
+        <v>988.1475398457731</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.958637625471</v>
+        <v>793.9644698127911</v>
       </c>
       <c r="W16" t="n">
-        <v>998.4245107028422</v>
+        <v>582.4303428901626</v>
       </c>
       <c r="X16" t="n">
-        <v>836.1404636320193</v>
+        <v>420.1462958193395</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.8246775948566</v>
+        <v>268.8305097821767</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975444</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404055</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5586,31 +5586,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411555</v>
+        <v>137.1794355089966</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885604</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.447221521881</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588732</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072703</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462933</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162815</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532865</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918825</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161918</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194243</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984017</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974534</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414179</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599518</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498594</v>
       </c>
       <c r="E20" t="n">
-        <v>827.889542297546</v>
+        <v>827.8895422975472</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099334</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803452</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5823,28 +5823,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885604</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.447221521881</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588732</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072703</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462933</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532865</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918825</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161918</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194243</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330103</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984017</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974534</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414179</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599518</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498594</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975467</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099327</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803442</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924321</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071063</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.21970818807</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443168</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8582737663422</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646556</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2069.873350433611</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>2151.708391543553</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>2315.836031417352</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>2502.127609755617</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>2685.317243786826</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>2848.022010828534</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>2967.898176605112</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>3100.376742597592</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205778</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>3034.817038070735</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>2930.774722921378</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>2777.012667845687</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>2642.71005934892</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>2491.056393962506</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>2297.217483926949</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
         <v>2423.283548473132</v>
@@ -6245,7 +6245,7 @@
         <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6367,31 +6367,31 @@
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6543,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2210070908127</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
         <v>1469.558742615807</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.94728978168</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419142</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.07126703854</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170062</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965126</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918664</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237458</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431912</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1017.955390680509</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395514</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000937</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124415</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584494</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655128</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099308</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
         <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7181,43 +7181,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860693</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411551</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,31 +7427,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567326</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,13 +7682,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655131</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072211</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964837996</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>400.7145237006711</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.4530631058867</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886036</v>
+        <v>203.822899951638</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.6983620404617</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>529.861264073505</v>
       </c>
       <c r="M5" t="n">
-        <v>223.9579342020119</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>454.5861778964994</v>
+        <v>506.2989056080661</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>663.8430986641874</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577846</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074838</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,16 +8775,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8933,13 +8933,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698837</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>684.2495388215582</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>158.2629500655365</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.790719668436</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,13 +9489,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6030013529515</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,16 +9723,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046916</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416642</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10191,16 +10191,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095478</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488179</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O45" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>235.473190322453</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.7701071136279</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>99.29282285660743</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>21.81126521532595</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>78.27624867667345</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.5510146246523</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.8642897817882</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.70386729909431</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>122.2021911832384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.047505660272723e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-9.802231650045987e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>956009.3982914243</v>
+        <v>954505.5292570235</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>956009.3982914243</v>
+        <v>954505.5292570235</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861316.5820827865</v>
+        <v>861316.5820827861</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861316.5820827864</v>
+        <v>861316.5820827862</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>966182.3554275671</v>
+        <v>966182.3554275674</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>966182.3554275673</v>
+        <v>966182.3554275676</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>966182.3554275675</v>
+        <v>966182.3554275674</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>360664.3561867136</v>
       </c>
       <c r="C2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867135</v>
       </c>
       <c r="D2" t="n">
         <v>360664.3561867135</v>
       </c>
       <c r="E2" t="n">
-        <v>318718.0468488017</v>
+        <v>318718.0468488015</v>
       </c>
       <c r="F2" t="n">
-        <v>318718.0468488016</v>
+        <v>318718.0468488015</v>
       </c>
       <c r="G2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867133</v>
       </c>
       <c r="H2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="I2" t="n">
         <v>360664.3561867137</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>360664.3561867134</v>
-      </c>
-      <c r="J2" t="n">
-        <v>360664.3561867136</v>
       </c>
       <c r="K2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="L2" t="n">
-        <v>360664.3561867144</v>
+        <v>360664.3561867135</v>
       </c>
       <c r="M2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="N2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867138</v>
       </c>
       <c r="O2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="P2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668199</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.3255366818</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>3.288736802600083e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277132</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26427,16 +26427,16 @@
         <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761034</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761034</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
+        <v>53186.01969984051</v>
+      </c>
+      <c r="F5" t="n">
         <v>53186.01969984052</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53186.01969984053</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26488,22 +26488,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109779.5042941071</v>
+        <v>-105127.2846729322</v>
       </c>
       <c r="C6" t="n">
-        <v>72425.44399774869</v>
+        <v>68731.37236112275</v>
       </c>
       <c r="D6" t="n">
-        <v>64680.86329412807</v>
+        <v>56944.57407073656</v>
       </c>
       <c r="E6" t="n">
-        <v>14803.50519039523</v>
+        <v>14593.77364370561</v>
       </c>
       <c r="F6" t="n">
-        <v>126926.0666644397</v>
+        <v>126716.3351177502</v>
       </c>
       <c r="G6" t="n">
-        <v>68704.38435840883</v>
+        <v>68704.38435840813</v>
       </c>
       <c r="H6" t="n">
+        <v>116129.7098950902</v>
+      </c>
+      <c r="I6" t="n">
+        <v>116129.7098950904</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-90395.92254762209</v>
+      </c>
+      <c r="K6" t="n">
+        <v>109889.9414923076</v>
+      </c>
+      <c r="L6" t="n">
+        <v>50658.51534721391</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72877.18542427931</v>
+      </c>
+      <c r="N6" t="n">
         <v>116129.7098950906</v>
       </c>
-      <c r="I6" t="n">
-        <v>116129.70989509</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-96912.20770219494</v>
-      </c>
-      <c r="K6" t="n">
-        <v>109889.9414923075</v>
-      </c>
-      <c r="L6" t="n">
-        <v>54707.35255768723</v>
-      </c>
-      <c r="M6" t="n">
-        <v>73928.88043546741</v>
-      </c>
-      <c r="N6" t="n">
-        <v>116129.7098950905</v>
-      </c>
       <c r="O6" t="n">
-        <v>88362.01585231919</v>
+        <v>88362.01585231943</v>
       </c>
       <c r="P6" t="n">
         <v>116129.7098950905</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.36896867694289e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,16 +26799,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
@@ -26817,16 +26817,16 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085248</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.28165692085226</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346418</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346416</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.36896867694289e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407289</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.28165692085248</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>59.28165692085226</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346418</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.3050145593607</v>
+        <v>13.37473395653205</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,7 +27433,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>90.39920560792407</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>7.656667631068899</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>24.1733394976992</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>216.9156391028127</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>22.68131185395748</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>75.55601749164262</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>50.09571640609548</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>80.11698344546296</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>66.12369447580221</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8196940238511</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.004734851329601</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>97.87407542060771</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>14.06900956779711</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082804</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155842</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082803</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155842</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733317</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082802</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833165</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893323</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>76.79385455031323</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254034</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,46 +30378,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>28.01250026485255</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>35.71049010668722</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,13 +30882,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32707,31 +32707,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.490696503496208e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.234167635536378e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.771682510499156e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.084030838975872e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.133933682205476e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.959284708210096e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.525681032985864e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89668127120489e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.103285341318649e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -32789,25 +32789,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.517474714896287e-13</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.040432022189224e-13</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.381087928933875e-13</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.444108241264494e-13</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2.235881545453971e-13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.794492059025845e-13</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.199570418620244e-13</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>250.9894721029438</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>68.95436468749456</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434437</v>
+        <v>118.4507870974713</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.71020888454772</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>376.6130943430134</v>
       </c>
       <c r="M5" t="n">
-        <v>74.2328826042846</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>362.1990558471875</v>
+        <v>413.9117835587542</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>514.1180470664602</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515698</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,16 +35495,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>598.8774259673916</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>75.81849273220313</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.3850182462385</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835437</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,13 +36209,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>545.2308884987849</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184328</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835437</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682113</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510918</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449115</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062895</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.4505918164783</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553799</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589875</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257367</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634531391</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>273.3632145670549</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446882</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394231</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155209</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553812</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>241.1421040873921</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504985</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094865</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510907</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8838015594792</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O45" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565479</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
